--- a/CAA/2025.xlsx
+++ b/CAA/2025.xlsx
@@ -2700,7 +2700,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2750,12 +2750,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2807,7 +2801,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2837,10 +2831,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2967,10 +2957,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T317"/>
+  <dimension ref="A1:T315"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D314" activeCellId="0" sqref="D314"/>
+      <selection pane="topLeft" activeCell="A317" activeCellId="0" sqref="317:317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13764,7 +13754,7 @@
       <c r="A312" s="1" t="n">
         <v>3022</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="5" t="s">
         <v>857</v>
       </c>
       <c r="C312" s="1" t="n">
@@ -13793,16 +13783,6 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1"/>
-    </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="n">
-        <f aca="false">SUM(C2:C312)</f>
-        <v>1241</v>
-      </c>
-      <c r="D317" s="1" t="n">
-        <f aca="false">SUM(D2:D312)</f>
-        <v>199</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
